--- a/component stocks in FTSEKLCI index.xlsx
+++ b/component stocks in FTSEKLCI index.xlsx
@@ -33,9 +33,6 @@
     <t>PE RATIO</t>
   </si>
   <si>
-    <t>NET MARKET CAPITAL</t>
-  </si>
-  <si>
     <t xml:space="preserve">RHB Capital </t>
   </si>
   <si>
@@ -187,6 +184,10 @@
   </si>
   <si>
     <t xml:space="preserve">BIL </t>
+  </si>
+  <si>
+    <t>NET MARKET CAPITAL
+(in Billion)</t>
   </si>
 </sst>
 </file>
@@ -243,12 +244,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -315,10 +322,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -328,19 +346,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,10 +670,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -671,8 +681,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -688,692 +698,692 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="8" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1023</v>
+      </c>
+      <c r="E5" s="6">
+        <v>5.76</v>
+      </c>
+      <c r="F5" s="6">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="G5" s="6">
+        <v>47.29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1015</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2.38</v>
+      </c>
+      <c r="F6" s="6">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="G6" s="6">
+        <v>17.420000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5819</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1.67</v>
+      </c>
+      <c r="F7" s="6">
+        <v>11.74</v>
+      </c>
+      <c r="G7" s="6">
+        <v>14.74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1082</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="F8" s="6">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="G8" s="6">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1295</v>
+      </c>
+      <c r="E9" s="7">
+        <v>11.6</v>
+      </c>
+      <c r="F9" s="6">
+        <v>15.34</v>
+      </c>
+      <c r="G9" s="6">
+        <v>73.989999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1066</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1.06</v>
+      </c>
+      <c r="F10" s="6">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="G10" s="6">
+        <v>19.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>7</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1155</v>
+      </c>
+      <c r="E11" s="6">
+        <v>9.32</v>
+      </c>
+      <c r="F11" s="6">
+        <v>12.41</v>
+      </c>
+      <c r="G11" s="6">
+        <v>87.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6">
+        <v>6888</v>
+      </c>
+      <c r="E12" s="6">
+        <v>5.62</v>
+      </c>
+      <c r="F12" s="6">
+        <v>24.31</v>
+      </c>
+      <c r="G12" s="6">
+        <v>55.52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6">
+        <v>6947</v>
+      </c>
+      <c r="E13" s="6">
+        <v>4.16</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20.75</v>
+      </c>
+      <c r="G13" s="6">
+        <v>42.14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="6">
+        <v>6012</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3.45</v>
+      </c>
+      <c r="F14" s="6">
+        <v>30.09</v>
+      </c>
+      <c r="G14" s="6">
+        <v>49.41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="6">
+        <v>4863</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2.96</v>
+      </c>
+      <c r="F15" s="6">
+        <v>32.630000000000003</v>
+      </c>
+      <c r="G15" s="6">
+        <v>25.14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5347</v>
+      </c>
+      <c r="E16" s="6">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="F16" s="6">
+        <v>9.16</v>
+      </c>
+      <c r="G16" s="6">
+        <v>69.53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="6">
+        <v>4197</v>
+      </c>
+      <c r="E17" s="6">
+        <v>5.51</v>
+      </c>
+      <c r="F17" s="6">
+        <v>21.66</v>
+      </c>
+      <c r="G17" s="6">
+        <v>53.91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>14</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="6">
+        <v>3182</v>
+      </c>
+      <c r="E18" s="6">
+        <v>3.68</v>
+      </c>
+      <c r="F18" s="6">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="G18" s="6">
+        <v>31.52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>15</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4715</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="F19" s="6">
+        <v>20.45</v>
+      </c>
+      <c r="G19" s="6">
+        <v>25.71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>16</v>
       </c>
-      <c r="D5" s="10">
-        <v>1023</v>
-      </c>
-      <c r="E5" s="10">
-        <v>5.76</v>
-      </c>
-      <c r="F5" s="10">
-        <v>17.420000000000002</v>
-      </c>
-      <c r="G5" s="10">
-        <v>47.29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="10" t="s">
+      <c r="B20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="6">
+        <v>5183</v>
+      </c>
+      <c r="E20" s="6">
+        <v>3.55</v>
+      </c>
+      <c r="F20" s="6">
+        <v>22.21</v>
+      </c>
+      <c r="G20" s="6">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>17</v>
       </c>
-      <c r="D6" s="10">
-        <v>1015</v>
-      </c>
-      <c r="E6" s="10">
-        <v>2.38</v>
-      </c>
-      <c r="F6" s="10">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="G6" s="10">
-        <v>17.420000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="10" t="s">
+      <c r="B21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6">
+        <v>6033</v>
+      </c>
+      <c r="E21" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="F21" s="6">
+        <v>22.83</v>
+      </c>
+      <c r="G21" s="6">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>18</v>
       </c>
-      <c r="D7" s="10">
-        <v>5819</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1.67</v>
-      </c>
-      <c r="F7" s="10">
-        <v>11.74</v>
-      </c>
-      <c r="G7" s="10">
-        <v>14.74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="10" t="s">
+      <c r="B22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="6">
+        <v>5225</v>
+      </c>
+      <c r="E22" s="6">
+        <v>3.28</v>
+      </c>
+      <c r="F22" s="6">
+        <v>63.42</v>
+      </c>
+      <c r="G22" s="6">
+        <v>48.59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>19</v>
       </c>
-      <c r="D8" s="10">
-        <v>1082</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.64</v>
-      </c>
-      <c r="F8" s="10">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="G8" s="10">
-        <v>16.63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1295</v>
-      </c>
-      <c r="E9" s="11">
-        <v>11.6</v>
-      </c>
-      <c r="F9" s="10">
-        <v>15.34</v>
-      </c>
-      <c r="G9" s="10">
-        <v>73.989999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="10">
-        <v>1066</v>
-      </c>
-      <c r="E10" s="10">
-        <v>1.06</v>
-      </c>
-      <c r="F10" s="10">
-        <v>9.3699999999999992</v>
-      </c>
-      <c r="G10" s="10">
-        <v>19.52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="B23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1961</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2.99</v>
+      </c>
+      <c r="F23" s="6">
+        <v>74.430000000000007</v>
+      </c>
+      <c r="G23" s="6">
+        <v>27.84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>20</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="6">
+        <v>2445</v>
+      </c>
+      <c r="E24" s="6">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F24" s="6">
+        <v>29.18</v>
+      </c>
+      <c r="G24" s="6">
+        <v>24.55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>21</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="6">
+        <v>5218</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1.98</v>
+      </c>
+      <c r="F25" s="6">
+        <v>12.03</v>
+      </c>
+      <c r="G25" s="6">
+        <v>14.44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>22</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="6">
+        <v>5681</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1.21</v>
+      </c>
+      <c r="F26" s="6">
+        <v>37.020000000000003</v>
+      </c>
+      <c r="G26" s="6">
+        <v>20.52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>23</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1155</v>
-      </c>
-      <c r="E11" s="10">
-        <v>9.32</v>
-      </c>
-      <c r="F11" s="10">
-        <v>12.41</v>
-      </c>
-      <c r="G11" s="10">
-        <v>87.85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="10">
-        <v>6888</v>
-      </c>
-      <c r="E12" s="10">
-        <v>5.62</v>
-      </c>
-      <c r="F12" s="10">
-        <v>24.31</v>
-      </c>
-      <c r="G12" s="10">
-        <v>55.52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="10">
-        <v>6947</v>
-      </c>
-      <c r="E13" s="10">
-        <v>4.16</v>
-      </c>
-      <c r="F13" s="10">
-        <v>20.75</v>
-      </c>
-      <c r="G13" s="10">
-        <v>42.14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="10">
-        <v>6012</v>
-      </c>
-      <c r="E14" s="10">
-        <v>3.45</v>
-      </c>
-      <c r="F14" s="10">
-        <v>30.09</v>
-      </c>
-      <c r="G14" s="10">
-        <v>49.41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="D27" s="6">
+        <v>4065</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="F27" s="6">
+        <v>17.73</v>
+      </c>
+      <c r="G27" s="6">
+        <v>18.14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>24</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="6">
+        <v>4162</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="F28" s="6">
+        <v>20.11</v>
+      </c>
+      <c r="G28" s="6">
+        <v>18.760000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>25</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="10">
-        <v>4863</v>
-      </c>
-      <c r="E15" s="10">
-        <v>2.96</v>
-      </c>
-      <c r="F15" s="10">
-        <v>32.630000000000003</v>
-      </c>
-      <c r="G15" s="10">
-        <v>25.14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="D29" s="6">
+        <v>4677</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1.63</v>
+      </c>
+      <c r="F29" s="6">
+        <v>15.05</v>
+      </c>
+      <c r="G29" s="6">
+        <v>17.38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>26</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="6">
+        <v>4588</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1.37</v>
+      </c>
+      <c r="F30" s="6">
+        <v>20.37</v>
+      </c>
+      <c r="G30" s="6">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>27</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="6">
+        <v>6399</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1.22</v>
+      </c>
+      <c r="F31" s="6">
+        <v>28.69</v>
+      </c>
+      <c r="G31" s="6">
+        <v>15.76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>28</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="10">
-        <v>5347</v>
-      </c>
-      <c r="E16" s="10">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="F16" s="10">
-        <v>9.16</v>
-      </c>
-      <c r="G16" s="10">
-        <v>69.53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>13</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="10">
-        <v>4197</v>
-      </c>
-      <c r="E17" s="10">
-        <v>5.51</v>
-      </c>
-      <c r="F17" s="10">
-        <v>21.66</v>
-      </c>
-      <c r="G17" s="10">
-        <v>53.91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="D32" s="6">
+        <v>3816</v>
+      </c>
+      <c r="E32" s="6">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F32" s="6">
+        <v>16.07</v>
+      </c>
+      <c r="G32" s="6">
+        <v>36.07</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
         <v>29</v>
       </c>
-      <c r="D18" s="10">
-        <v>3182</v>
-      </c>
-      <c r="E18" s="10">
-        <v>3.68</v>
-      </c>
-      <c r="F18" s="10">
-        <v>19.489999999999998</v>
-      </c>
-      <c r="G18" s="10">
-        <v>31.52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>15</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="10" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="6">
+        <v>5246</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="F33" s="6">
+        <v>26.86</v>
+      </c>
+      <c r="G33" s="6">
+        <v>14.39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
         <v>30</v>
       </c>
-      <c r="D19" s="10">
-        <v>4715</v>
-      </c>
-      <c r="E19" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="F19" s="10">
-        <v>20.45</v>
-      </c>
-      <c r="G19" s="10">
-        <v>25.71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>16</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="10">
-        <v>5183</v>
-      </c>
-      <c r="E20" s="10">
-        <v>3.55</v>
-      </c>
-      <c r="F20" s="10">
-        <v>22.21</v>
-      </c>
-      <c r="G20" s="10">
-        <v>52.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>17</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="10">
-        <v>6033</v>
-      </c>
-      <c r="E21" s="11">
-        <v>3.4</v>
-      </c>
-      <c r="F21" s="10">
-        <v>22.83</v>
-      </c>
-      <c r="G21" s="10">
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>18</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="10">
-        <v>5225</v>
-      </c>
-      <c r="E22" s="10">
-        <v>3.28</v>
-      </c>
-      <c r="F22" s="10">
-        <v>63.42</v>
-      </c>
-      <c r="G22" s="10">
-        <v>48.59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>19</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="10">
-        <v>1961</v>
-      </c>
-      <c r="E23" s="10">
-        <v>2.99</v>
-      </c>
-      <c r="F23" s="10">
-        <v>74.430000000000007</v>
-      </c>
-      <c r="G23" s="10">
-        <v>27.84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>20</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="10">
-        <v>2445</v>
-      </c>
-      <c r="E24" s="10">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="F24" s="10">
-        <v>29.18</v>
-      </c>
-      <c r="G24" s="10">
-        <v>24.55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>21</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="10">
-        <v>5218</v>
-      </c>
-      <c r="E25" s="10">
-        <v>1.98</v>
-      </c>
-      <c r="F25" s="10">
-        <v>12.03</v>
-      </c>
-      <c r="G25" s="10">
-        <v>14.44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>22</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="10">
-        <v>5681</v>
-      </c>
-      <c r="E26" s="10">
-        <v>1.21</v>
-      </c>
-      <c r="F26" s="10">
-        <v>37.020000000000003</v>
-      </c>
-      <c r="G26" s="10">
-        <v>20.52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>23</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="10">
-        <v>4065</v>
-      </c>
-      <c r="E27" s="11">
-        <v>1.8</v>
-      </c>
-      <c r="F27" s="10">
-        <v>17.73</v>
-      </c>
-      <c r="G27" s="10">
-        <v>18.14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <v>24</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="10">
-        <v>4162</v>
-      </c>
-      <c r="E28" s="11">
-        <v>1.7</v>
-      </c>
-      <c r="F28" s="10">
-        <v>20.11</v>
-      </c>
-      <c r="G28" s="10">
-        <v>18.760000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
-        <v>25</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="10">
-        <v>4677</v>
-      </c>
-      <c r="E29" s="10">
-        <v>1.63</v>
-      </c>
-      <c r="F29" s="10">
-        <v>15.05</v>
-      </c>
-      <c r="G29" s="10">
-        <v>17.38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <v>26</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="10">
-        <v>4588</v>
-      </c>
-      <c r="E30" s="10">
-        <v>1.37</v>
-      </c>
-      <c r="F30" s="10">
-        <v>20.37</v>
-      </c>
-      <c r="G30" s="10">
-        <v>11.94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
-        <v>27</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="10">
-        <v>6399</v>
-      </c>
-      <c r="E31" s="10">
-        <v>1.22</v>
-      </c>
-      <c r="F31" s="10">
-        <v>28.69</v>
-      </c>
-      <c r="G31" s="10">
-        <v>15.76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
-        <v>28</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="10">
-        <v>3816</v>
-      </c>
-      <c r="E32" s="10">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="F32" s="10">
-        <v>16.07</v>
-      </c>
-      <c r="G32" s="10">
-        <v>36.07</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
-        <v>29</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="10" t="s">
+      <c r="B34" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="10">
-        <v>5246</v>
-      </c>
-      <c r="E33" s="10">
-        <v>0.93</v>
-      </c>
-      <c r="F33" s="10">
-        <v>26.86</v>
-      </c>
-      <c r="G33" s="10">
-        <v>14.39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
-        <v>30</v>
-      </c>
-      <c r="B34" s="10" t="s">
+      <c r="C34" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="D34" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="10">
+      <c r="E34" s="6">
         <v>0.63</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="6">
         <v>28.16</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="6">
         <v>12.66</v>
       </c>
     </row>
@@ -1382,7 +1392,7 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="10">
+      <c r="E35" s="6">
         <f>SUM(E5:E34)</f>
         <v>100.01</v>
       </c>
